--- a/biology/Botanique/Chrysophyllum_lacourtianum/Chrysophyllum_lacourtianum.xlsx
+++ b/biology/Botanique/Chrysophyllum_lacourtianum/Chrysophyllum_lacourtianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysophyllum lacourtianum est une espèce de plantes à fleurs de la famille des Sapotaceae. C'est un arbre qui se trouve en Afrique centrale, au Cameroun, en République du Congo, en République démocratique du Congo, au Gabon, en Guinée équatoriale et en République centrafricaine. Son fruit est comestible. On l’appelle aussi abam ou longhi.
 </t>
